--- a/2018湖北移动/维护文档/360质量/经分360数据质量.xlsx
+++ b/2018湖北移动/维护文档/360质量/经分360数据质量.xlsx
@@ -1,167 +1,280 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28660" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="功能菜单" sheetId="1" r:id="rId1"/>
     <sheet name="部署情况" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+  <si>
+    <t>功能菜单</t>
+  </si>
+  <si>
+    <t>功能说明</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>全方位多角度展现数据质量的整体情况，并提供快捷链接入口（稽核情况，告警/预警情况，问题情况及相应历史趋势)</t>
+  </si>
+  <si>
+    <t>质量监控</t>
+  </si>
+  <si>
+    <t>展示数据质量的稽核明细，包括对象视角和规则视角展示</t>
+  </si>
+  <si>
+    <t>我的告警/预警</t>
+  </si>
+  <si>
+    <t>展示需要自己处理的告警和预警</t>
+  </si>
+  <si>
+    <t>我的问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    我创建的问题</t>
+  </si>
+  <si>
+    <t>问题创建的入口，展示自己创建的问题，提供新增，编辑，删除的功能，并能查看问题在流程中的处理情况</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    我待办的问题</t>
+  </si>
+  <si>
+    <t>展示当前需要自己处理的问题流程任务单</t>
+  </si>
+  <si>
+    <t>知识库</t>
+  </si>
+  <si>
+    <t>知识库的管理，查询界面</t>
+  </si>
+  <si>
+    <t>质量规则</t>
+  </si>
+  <si>
+    <t>设置质量稽核规则</t>
+  </si>
+  <si>
+    <t>基础信息维护</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    告警级别管理</t>
+  </si>
+  <si>
+    <t>设置告警/预警的级别，并设置最少处理时长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    对象分类管理</t>
+  </si>
+  <si>
+    <t>设置质量检查的对象分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    对象管理</t>
+  </si>
+  <si>
+    <t>基于对象分类，提供质量对象的元数据同步，导入，新增，删除等功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    血缘关系</t>
+  </si>
+  <si>
+    <t>设置模型，程序的血缘关系</t>
+  </si>
+  <si>
+    <t>任务配置</t>
+  </si>
+  <si>
+    <t>质量稽核的调度配置界面</t>
+  </si>
   <si>
     <t>部署方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的告警/预警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    告警级别管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    对象分类管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    对象管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    我创建的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    我待办的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全方位多角度展现数据质量的整体情况，并提供快捷链接入口（稽核情况，告警/预警情况，问题情况及相应历史趋势)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示数据质量的稽核明细，包括对象视角和规则视角展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示需要自己处理的告警和预警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题创建的入口，展示自己创建的问题，提供新增，编辑，删除的功能，并能查看问题在流程中的处理情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示当前需要自己处理的问题流程任务单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识库的管理，查询界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置质量稽核规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置告警/预警的级别，并设置最少处理时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于对象分类，提供质量对象的元数据同步，导入，新增，删除等功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量稽核的调度配置界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置质量检查的对象分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    元数据同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    血缘关系维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面维护元数据对象的血缘关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步DACP侧的元数据到质量平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +283,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,71 +484,349 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -259,15 +836,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635000" y="174626"/>
-          <a:ext cx="7881938" cy="3984625"/>
+          <a:off x="571500" y="228600"/>
+          <a:ext cx="6611620" cy="5172075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -314,19 +891,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>603248</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>15872</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="笑脸 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1492248" y="428622"/>
-          <a:ext cx="476250" cy="460375"/>
+          <a:off x="1269365" y="535940"/>
+          <a:ext cx="445135" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="smileyFace">
           <a:avLst/>
@@ -367,7 +944,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>611187</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -377,15 +954,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>150813</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="圆角矩形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2659062" y="523875"/>
-          <a:ext cx="3024187" cy="325438"/>
+          <a:off x="2286000" y="685800"/>
+          <a:ext cx="2507615" cy="379095"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -432,25 +1009,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>119060</xdr:colOff>
+      <xdr:colOff>117475</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>7934</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619123</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>87310</xdr:rowOff>
+      <xdr:rowOff>86995</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1484310" y="881059"/>
-          <a:ext cx="500063" cy="254001"/>
+          <a:off x="1260475" y="1150620"/>
+          <a:ext cx="527050" cy="307975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,6 +1058,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>用户</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -499,15 +1077,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="圆角矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857248" y="1438275"/>
-          <a:ext cx="3492501" cy="339725"/>
+          <a:off x="745490" y="1870075"/>
+          <a:ext cx="2936875" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -555,7 +1133,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> 10.25.125.70:8090/cmhb-bassdq</a:t>
+            <a:t> 10.25.125.70:8980/cmhb-bassdq</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -566,25 +1144,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>42865</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="圆角矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4714875" y="1463677"/>
-          <a:ext cx="3397250" cy="325438"/>
+          <a:off x="4000500" y="1895475"/>
+          <a:ext cx="2857500" cy="433070"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -671,8 +1249,17 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> 10.25.125.71:8090/cmhb-bassdq</a:t>
+            <a:t> 10.25.125.71:8980/cmhb-bassdq</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -691,15 +1278,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>166686</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="流程图: 磁盘 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3881438" y="2373311"/>
-          <a:ext cx="1587500" cy="1285875"/>
+          <a:off x="3325495" y="3074670"/>
+          <a:ext cx="1254125" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -742,6 +1329,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> 10.25.125.68:3306</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -753,6 +1341,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>服务器数据库</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -767,11 +1356,11 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>579438</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>103186</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
         <xdr:cNvCxnSpPr>
@@ -781,8 +1370,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2603499" y="1778000"/>
-          <a:ext cx="2071689" cy="595311"/>
+          <a:off x="2269490" y="2317750"/>
+          <a:ext cx="1731010" cy="756920"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -811,7 +1400,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>579438</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>42865</xdr:rowOff>
     </xdr:from>
@@ -821,7 +1410,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>103186</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
         <xdr:cNvCxnSpPr>
@@ -831,8 +1420,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4675188" y="1789115"/>
-          <a:ext cx="1738312" cy="584196"/>
+          <a:off x="4000500" y="2328545"/>
+          <a:ext cx="1412875" cy="746125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -861,17 +1450,17 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>603248</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>134935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>611187</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>162719</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
         <xdr:cNvCxnSpPr>
@@ -881,8 +1470,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1968498" y="658810"/>
-          <a:ext cx="690564" cy="27784"/>
+          <a:off x="1714500" y="820420"/>
+          <a:ext cx="571500" cy="27940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -911,25 +1500,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2635250" y="865188"/>
-          <a:ext cx="762001" cy="547687"/>
+          <a:off x="2286000" y="1080770"/>
+          <a:ext cx="571500" cy="763905"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -968,7 +1557,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66677</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
         <xdr:cNvCxnSpPr>
@@ -978,8 +1567,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4171156" y="849313"/>
-          <a:ext cx="2242344" cy="614364"/>
+          <a:off x="3503930" y="1064895"/>
+          <a:ext cx="1909445" cy="830580"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1289,175 +1878,170 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="97.625" customWidth="1"/>
+    <col min="3" max="3" width="97.63" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="36" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" ht="36" spans="2:3">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
+    <row r="12" spans="2:3">
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
+    <row r="13" spans="2:3">
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1"/>
+    <row r="14" spans="2:3">
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
+    <row r="15" spans="2:3">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>